--- a/3DRpgDemo/配置工具/配置Excel/Weapon_武器表.xlsx
+++ b/3DRpgDemo/配置工具/配置Excel/Weapon_武器表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityDemo\3DRpgDemo\配置工具\配置Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityDemo\Soul-like-Arena\3DRpgDemo\配置工具\配置Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84828AB-AADC-49F4-87AD-7EF1AC70E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39550256-B5A1-411B-BED7-FF91A455C435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="5400" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halberd</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -727,9 +731,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>

--- a/3DRpgDemo/配置工具/配置Excel/Weapon_武器表.xlsx
+++ b/3DRpgDemo/配置工具/配置Excel/Weapon_武器表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityDemo\Soul-like-Arena\3DRpgDemo\配置工具\配置Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39550256-B5A1-411B-BED7-FF91A455C435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5B907-F5F5-42D0-81F4-180C2E2F0B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,36 +125,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xuzouxiang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-这里开始就是写参数了</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -177,10 +153,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -205,10 +177,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Falchion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Sword</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -217,11 +185,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Mace</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
+    <t>Halberd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pclass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lancer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -229,7 +213,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Halberd</t>
+    <t>Shield</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -632,7 +616,7 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,13 +624,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -654,13 +641,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -668,13 +658,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -685,66 +678,64 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>

--- a/3DRpgDemo/配置工具/配置Excel/Weapon_武器表.xlsx
+++ b/3DRpgDemo/配置工具/配置Excel/Weapon_武器表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityDemo\Soul-like-Arena\3DRpgDemo\配置工具\配置Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5B907-F5F5-42D0-81F4-180C2E2F0B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7C20A7-E346-4878-ACF6-B83316EDE0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6855" yWindow="1695" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -185,10 +185,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Halberd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>职业</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -214,6 +210,10 @@
   </si>
   <si>
     <t>Shield</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pike</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -647,7 +647,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -664,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -695,10 +695,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -706,16 +706,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -723,16 +723,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
